--- a/20160620/hourspertask for PTR-IHC.xlsx
+++ b/20160620/hourspertask for PTR-IHC.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="27630" windowHeight="14820"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="27630" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="hourspertask for PTR-IHC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1598,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G431"/>
+  <dimension ref="A1:H431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3535,7 +3535,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>42550</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>42550</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>42563</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>42565</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>42566</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>42566</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42570</v>
       </c>
@@ -3669,184 +3669,204 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>42563</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="4">
         <v>0.625</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F104">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+      <c r="F104" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>42563</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="4">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="5">
         <v>2.5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+    <row r="106" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>42563</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="4">
         <v>0.53125</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+      <c r="G106" s="5">
+        <f>SUM(F104:F106)</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>42564</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="4">
         <v>0.37847222222222227</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="5">
         <v>0.75</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+    <row r="108" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>42564</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="4">
         <v>0.42430555555555555</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+    <row r="109" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>42570</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="4">
         <v>0.46875</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+      <c r="F109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>42570</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="4">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="5">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+      <c r="G110" s="5">
+        <f>SUM(F107:F110)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>42570</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="4">
         <v>0.625</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="5">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+      <c r="G111" s="5">
+        <f>F111</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>42571</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="4">
         <v>0.54861111111111105</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="5">
         <v>0.75</v>
+      </c>
+      <c r="G112" s="5">
+        <f>F112</f>
+        <v>0.75</v>
+      </c>
+      <c r="H112" s="5">
+        <f>SUM(F104:F112)/2</f>
+        <v>4.375</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -9256,7 +9276,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:F431">
+  <sortState ref="A1:G431">
     <sortCondition ref="E1:E431"/>
     <sortCondition ref="A1:A431"/>
     <sortCondition ref="B1:B431"/>
